--- a/report/results/mabrouka/experiments.xlsx
+++ b/report/results/mabrouka/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name=" fitness values comparison" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="MOEAD fitness values" sheetId="1" r:id="rId3"/>
     <sheet name="Coverage" sheetId="6" r:id="rId4"/>
     <sheet name="MOEAD 1 vs 2 obj" sheetId="2" r:id="rId5"/>
+    <sheet name="moead runtime" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>Non Normalized Fitness</t>
   </si>
@@ -261,6 +262,15 @@
   <si>
     <t>Runtime</t>
   </si>
+  <si>
+    <t>population size</t>
+  </si>
+  <si>
+    <t>generation size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> runtime</t>
+  </si>
 </sst>
 </file>
 
@@ -554,11 +564,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1610266448"/>
-        <c:axId val="1610267536"/>
+        <c:axId val="-21369632"/>
+        <c:axId val="-21364736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1610266448"/>
+        <c:axId val="-21369632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610267536"/>
+        <c:crossAx val="-21364736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610267536"/>
+        <c:axId val="-21364736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610266448"/>
+        <c:crossAx val="-21369632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,6 +958,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1044,11 +1055,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1610268080"/>
-        <c:axId val="1610261008"/>
+        <c:axId val="-167077632"/>
+        <c:axId val="-167091232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1610268080"/>
+        <c:axId val="-167077632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,6 +1091,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1146,7 +1158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610261008"/>
+        <c:crossAx val="-167091232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1154,7 +1166,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610261008"/>
+        <c:axId val="-167091232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610268080"/>
+        <c:crossAx val="-167077632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1407,6 +1419,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1503,11 +1516,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1610262640"/>
-        <c:axId val="1610263184"/>
+        <c:axId val="-15808080"/>
+        <c:axId val="-15807536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1610262640"/>
+        <c:axId val="-15808080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,6 +1557,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1610,7 +1624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610263184"/>
+        <c:crossAx val="-15807536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1618,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1610263184"/>
+        <c:axId val="-15807536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1664,6 +1678,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1724,7 +1739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1610262640"/>
+        <c:crossAx val="-15808080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1907,11 +1922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1125392400"/>
-        <c:axId val="1125392944"/>
+        <c:axId val="-15810256"/>
+        <c:axId val="-15812432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1125392400"/>
+        <c:axId val="-15810256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,6 +1977,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2028,12 +2044,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1125392944"/>
+        <c:crossAx val="-15812432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1125392944"/>
+        <c:axId val="-15812432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,6 +2100,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2150,7 +2167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1125392400"/>
+        <c:crossAx val="-15810256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,11 +2350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1125390768"/>
-        <c:axId val="1125391312"/>
+        <c:axId val="-15809168"/>
+        <c:axId val="-15806992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1125390768"/>
+        <c:axId val="-15809168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2388,6 +2405,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2454,12 +2472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1125391312"/>
+        <c:crossAx val="-15806992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1125391312"/>
+        <c:axId val="-15806992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,6 +2528,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2576,7 +2595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1125390768"/>
+        <c:crossAx val="-15809168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4004,11 +4023,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1125394032"/>
-        <c:axId val="1125386960"/>
+        <c:axId val="-15806448"/>
+        <c:axId val="-15812976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1125394032"/>
+        <c:axId val="-15806448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,6 +4056,430 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Different System GUIs (Java files)</a:t>
                 </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-15812976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-15812976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Coverage Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-15806448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Coverage!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coverage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Coverage!$A$28:$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>D + U</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>D + U + R</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D + U + R + Seq</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>D + U + R + Seq + G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>D + U + R + Seq + G + Sim</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>D + U + R + Seq + G + Sim + Sym</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>D + U + R + Seq + G + Sim + Sym + H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Coverage!$B$28:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.56540000000000012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8851500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3741500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.81555</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4451499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9913499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-15274096"/>
+        <c:axId val="-15273552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-15274096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metrics</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Used</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4106,7 +4549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1125386960"/>
+        <c:crossAx val="-15273552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4114,7 +4557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1125386960"/>
+        <c:axId val="-15273552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,428 +4663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1125394032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Coverage!$B$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coverage</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Coverage!$A$28:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>D</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>D + U</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>D + U + R</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>D + U + R + Seq</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>D + U + R + Seq + G</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>D + U + R + Seq + G + Sim</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>D + U + R + Seq + G + Sim + Sym</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>D + U + R + Seq + G + Sim + Sym + H</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Coverage!$B$28:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.56540000000000012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8851500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3741500000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.81555</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0099</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.4451499999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9913499999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1125389136"/>
-        <c:axId val="1125389680"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1125389136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Metrics</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Used</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1125389680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1125389680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average Coverage Score</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1125389136"/>
+        <c:crossAx val="-15274096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4907,17 +4929,18 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1347576128"/>
-        <c:axId val="1347575584"/>
+        <c:axId val="-15277904"/>
+        <c:axId val="-15277360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1347576128"/>
+        <c:axId val="-15277904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4984,7 +5007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1347575584"/>
+        <c:crossAx val="-15277360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4992,7 +5015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1347575584"/>
+        <c:axId val="-15277360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5013,6 +5036,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5073,7 +5097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1347576128"/>
+        <c:crossAx val="-15277904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5087,6 +5111,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10218,7 +10243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10359,7 +10384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A22"/>
     </sheetView>
   </sheetViews>
@@ -11805,4 +11830,100 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>500</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>97226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>116535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>206049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>